--- a/RET/426-RET_MG.xlsx
+++ b/RET/426-RET_MG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44827aad0f7931dd/Desktop/Sentinela/RET/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3D014EBF-01C5-4180-912F-EC71A1767E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D0B4DE-6C19-41C1-85CC-68DFCC3610F3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{3D014EBF-01C5-4180-912F-EC71A1767E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0EE8F0A-74CC-48E4-98EF-8DB90FFD9D57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{CEF5D5F2-C70A-427A-8E66-1B1DEF4F7148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CEF5D5F2-C70A-427A-8E66-1B1DEF4F7148}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa_RET" sheetId="1" r:id="rId1"/>
@@ -1181,6 +1181,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,12 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E75F366-775E-4FE2-8ACB-C580C486AD70}">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,7 +2315,7 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="118" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2342,7 +2342,7 @@
       <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="117" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2363,7 +2363,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),A3,INDIRECT("TabelaEntradas[VC]"))</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="8" t="e">
@@ -2409,7 +2409,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),A4,INDIRECT("TabelaEntradas[VC]"))</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="8" t="e">
@@ -2455,7 +2455,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ref="C5:C38" ca="1" si="0">SUMIF(INDIRECT("TabelaEntradas[AC]"),A5,INDIRECT("TabelaEntradas[VC]"))</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="8" t="e">
@@ -2585,7 +2585,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D9" s="8" t="e">
@@ -2631,7 +2631,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D10" s="8" t="e">
@@ -2677,7 +2677,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D11" s="8" t="e">
@@ -2723,7 +2723,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D12" s="8" t="e">
@@ -2769,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D13" s="8" t="e">
@@ -2815,7 +2815,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D14" s="8" t="e">
@@ -2861,7 +2861,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D15" s="8" t="e">
@@ -2907,7 +2907,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D16" s="8" t="e">
@@ -2953,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D17" s="8" t="e">
@@ -2999,7 +2999,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D18" s="8" t="e">
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D19" s="8" t="e">
@@ -3089,7 +3089,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D20" s="8" t="e">
@@ -3135,7 +3135,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D21" s="8" t="e">
@@ -3181,7 +3181,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D22" s="8" t="e">
@@ -3227,7 +3227,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D23" s="8" t="e">
@@ -3273,7 +3273,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="34" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D24" s="34" t="e">
@@ -3319,7 +3319,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D25" s="8" t="e">
@@ -3365,7 +3365,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D26" s="8" t="e">
@@ -3411,7 +3411,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D27" s="8" t="e">
@@ -3455,7 +3455,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D28" s="8" t="e">
@@ -3501,7 +3501,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="34" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D29" s="34" t="e">
@@ -3547,7 +3547,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D30" s="8" t="e">
@@ -3593,7 +3593,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D31" s="8" t="e">
@@ -3639,7 +3639,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D32" s="8" t="e">
@@ -3685,7 +3685,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D33" s="8" t="e">
@@ -3731,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D34" s="8" t="e">
@@ -3775,7 +3775,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D35" s="8" t="e">
@@ -3821,7 +3821,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D36" s="8" t="e">
@@ -3867,7 +3867,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D37" s="8" t="e">
@@ -3913,7 +3913,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="8" t="e">
-        <f ca="1">SUMIF(INDIRECT("TabelaEntradas[AC]"),EntradasAC[[#This Row],[Código]],INDIRECT("TabelaEntradas[VC]"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="D38" s="8" t="e">
@@ -4033,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C2FB5B-905C-4E7E-A14D-7787458545F1}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -4055,28 +4055,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="37" t="e">
         <f ca="1">SUBTOTAL(9,D4:D20)</f>
         <v>#REF!</v>
